--- a/Res_ConvLSTM/DroughtDataset_model_testing_1729619966_h_1.xlsx
+++ b/Res_ConvLSTM/DroughtDataset_model_testing_1729619966_h_1.xlsx
@@ -657,13 +657,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.001714432223909776</v>
+        <v>0.001692843156776849</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008529498275473037</v>
+        <v>0.008446913970685845</v>
       </c>
       <c r="C2" t="n">
-        <v>6396396</v>
+        <v>6212772</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -681,52 +681,52 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6396396</v>
+        <v>6212772</v>
       </c>
       <c r="K2" t="n">
-        <v>4984910</v>
+        <v>4884303</v>
       </c>
       <c r="L2" t="n">
-        <v>3346685</v>
+        <v>3187338</v>
       </c>
       <c r="M2" t="n">
-        <v>904612</v>
+        <v>886066</v>
       </c>
       <c r="N2" t="n">
-        <v>65408</v>
+        <v>64367</v>
       </c>
       <c r="O2" t="n">
-        <v>494256</v>
+        <v>489939</v>
       </c>
       <c r="P2" t="n">
-        <v>187682</v>
+        <v>187036</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9999967217445374</v>
+        <v>0.9999966025352478</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9971166253089905</v>
+        <v>0.9971510171890259</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9758268594741821</v>
+        <v>0.975960910320282</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9654436111450195</v>
+        <v>0.9661017060279846</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6972465515136719</v>
+        <v>0.6990789771080017</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9860744476318359</v>
+        <v>0.9862412214279175</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9970727562904358</v>
+        <v>0.9975306391716003</v>
       </c>
       <c r="X2" t="n">
-        <v>6396483</v>
+        <v>6212772</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,63 +747,63 @@
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>6396483</v>
+        <v>6212772</v>
       </c>
       <c r="AF2" t="n">
-        <v>4818683</v>
+        <v>4722285</v>
       </c>
       <c r="AG2" t="n">
-        <v>3064228</v>
+        <v>2920052</v>
       </c>
       <c r="AH2" t="n">
-        <v>810684</v>
+        <v>795698</v>
       </c>
       <c r="AI2" t="n">
-        <v>59622</v>
+        <v>58613</v>
       </c>
       <c r="AJ2" t="n">
-        <v>462194</v>
+        <v>458430</v>
       </c>
       <c r="AK2" t="n">
-        <v>180610</v>
+        <v>180009</v>
       </c>
       <c r="AL2" t="n">
         <v>1</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9546757936477661</v>
+        <v>0.9563660621643066</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.9121971130371094</v>
+        <v>0.911352276802063</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.8573558926582336</v>
+        <v>0.8591848611831665</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6597105264663696</v>
+        <v>0.6632080674171448</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.9016343355178833</v>
+        <v>0.9023253321647644</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.9313058257102966</v>
+        <v>0.931419849395752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0003084374139423511</v>
+        <v>0.0003050826344859243</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002041279598486683</v>
+        <v>0.002027698497621615</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4984910</v>
+        <v>4884303</v>
       </c>
       <c r="E3" t="n">
-        <v>49642</v>
+        <v>46514</v>
       </c>
       <c r="F3" t="n">
         <v>136</v>
@@ -818,61 +818,61 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10149096</v>
+        <v>9857607</v>
       </c>
       <c r="K3" t="n">
-        <v>11496488</v>
+        <v>11125483</v>
       </c>
       <c r="L3" t="n">
-        <v>13093191</v>
+        <v>12782527</v>
       </c>
       <c r="M3" t="n">
-        <v>15566014</v>
+        <v>15112130</v>
       </c>
       <c r="N3" t="n">
-        <v>16426712</v>
+        <v>15954225</v>
       </c>
       <c r="O3" t="n">
-        <v>16025449</v>
+        <v>15555175</v>
       </c>
       <c r="P3" t="n">
-        <v>16350999</v>
+        <v>15876674</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9999864101409912</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.990111231803894</v>
+        <v>0.9905375242233276</v>
       </c>
       <c r="S3" t="n">
-        <v>0.993227481842041</v>
+        <v>0.9931366443634033</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9550309777259827</v>
+        <v>0.9556569457054138</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7228441834449768</v>
+        <v>0.7275738120079041</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9631409645080566</v>
+        <v>0.9637069702148438</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9671837091445923</v>
+        <v>0.9677796363830566</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>4818683</v>
+        <v>4722285</v>
       </c>
       <c r="Z3" t="n">
-        <v>200386</v>
+        <v>193720</v>
       </c>
       <c r="AA3" t="n">
-        <v>8658</v>
+        <v>8247</v>
       </c>
       <c r="AB3" t="n">
-        <v>6929</v>
+        <v>6669</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
@@ -881,66 +881,66 @@
         <v>30</v>
       </c>
       <c r="AE3" t="n">
-        <v>10149117</v>
+        <v>9857628</v>
       </c>
       <c r="AF3" t="n">
-        <v>11282131</v>
+        <v>10923985</v>
       </c>
       <c r="AG3" t="n">
-        <v>12881150</v>
+        <v>12577000</v>
       </c>
       <c r="AH3" t="n">
-        <v>15463514</v>
+        <v>15012810</v>
       </c>
       <c r="AI3" t="n">
-        <v>16424359</v>
+        <v>15952167</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15982005</v>
+        <v>15512386</v>
       </c>
       <c r="AK3" t="n">
-        <v>16338228</v>
+        <v>15863883</v>
       </c>
       <c r="AL3" t="n">
         <v>1</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9570949077606201</v>
+        <v>0.9576802849769592</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.9094000458717346</v>
+        <v>0.9098535180091858</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.8558678030967712</v>
+        <v>0.8581914901733398</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.6589012742042542</v>
+        <v>0.6625333428382874</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.9006627202033997</v>
+        <v>0.9017289876937866</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.9307395219802856</v>
+        <v>0.931419849395752</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01180389270257227</v>
+        <v>0.01169544200850879</v>
       </c>
       <c r="B4" t="n">
-        <v>0.032156447865956</v>
+        <v>0.03195506504971016</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>14251</v>
+        <v>13802</v>
       </c>
       <c r="E4" t="n">
-        <v>3346685</v>
+        <v>3187338</v>
       </c>
       <c r="F4" t="n">
-        <v>8558</v>
+        <v>8214</v>
       </c>
       <c r="G4" t="n">
         <v>11</v>
@@ -955,106 +955,106 @@
         <v>21</v>
       </c>
       <c r="K4" t="n">
-        <v>14415</v>
+        <v>13955</v>
       </c>
       <c r="L4" t="n">
-        <v>82904</v>
+        <v>78508</v>
       </c>
       <c r="M4" t="n">
-        <v>32379</v>
+        <v>31090</v>
       </c>
       <c r="N4" t="n">
-        <v>28401</v>
+        <v>27707</v>
       </c>
       <c r="O4" t="n">
-        <v>6980</v>
+        <v>6835</v>
       </c>
       <c r="P4" t="n">
-        <v>551</v>
+        <v>463</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9999915957450867</v>
+        <v>0.9999982714653015</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9936015009880066</v>
+        <v>0.9938332438468933</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9844502806663513</v>
+        <v>0.9844738245010376</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9602090716362</v>
+        <v>0.9608509540557861</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7098146677017212</v>
+        <v>0.7130417823791504</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9744727611541748</v>
+        <v>0.9748439192771912</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9819008111953735</v>
+        <v>0.9824299216270447</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>213818</v>
+        <v>201254</v>
       </c>
       <c r="Z4" t="n">
-        <v>3064228</v>
+        <v>2920052</v>
       </c>
       <c r="AA4" t="n">
-        <v>84403</v>
+        <v>81460</v>
       </c>
       <c r="AB4" t="n">
-        <v>5710</v>
+        <v>5413</v>
       </c>
       <c r="AC4" t="n">
-        <v>1273</v>
+        <v>1118</v>
       </c>
       <c r="AD4" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>228772</v>
+        <v>215453</v>
       </c>
       <c r="AG4" t="n">
-        <v>294945</v>
+        <v>284035</v>
       </c>
       <c r="AH4" t="n">
-        <v>134879</v>
+        <v>130410</v>
       </c>
       <c r="AI4" t="n">
-        <v>30754</v>
+        <v>29765</v>
       </c>
       <c r="AJ4" t="n">
-        <v>50424</v>
+        <v>49624</v>
       </c>
       <c r="AK4" t="n">
-        <v>13322</v>
+        <v>13254</v>
       </c>
       <c r="AL4" t="n">
         <v>1</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.9558838605880737</v>
+        <v>0.9570227265357971</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.9107964634895325</v>
+        <v>0.9106022119522095</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.8566111922264099</v>
+        <v>0.8586879372596741</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.6593056321144104</v>
+        <v>0.6628705263137817</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.90114825963974</v>
+        <v>0.9020271301269531</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.931022584438324</v>
+        <v>0.931419849395752</v>
       </c>
     </row>
     <row r="5">
@@ -1064,16 +1064,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E5" t="n">
-        <v>32614</v>
+        <v>31373</v>
       </c>
       <c r="F5" t="n">
-        <v>904612</v>
+        <v>886066</v>
       </c>
       <c r="G5" t="n">
-        <v>9843</v>
+        <v>9614</v>
       </c>
       <c r="H5" t="n">
         <v>5</v>
@@ -1082,109 +1082,109 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>49787</v>
+        <v>46659</v>
       </c>
       <c r="L5" t="n">
-        <v>22820</v>
+        <v>22027</v>
       </c>
       <c r="M5" t="n">
-        <v>42595</v>
+        <v>41114</v>
       </c>
       <c r="N5" t="n">
-        <v>25079</v>
+        <v>24101</v>
       </c>
       <c r="O5" t="n">
-        <v>18915</v>
+        <v>18451</v>
       </c>
       <c r="P5" t="n">
-        <v>6368</v>
+        <v>6227</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9999934434890747</v>
+        <v>0.9999986886978149</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9961196780204773</v>
+        <v>0.9962282180786133</v>
       </c>
       <c r="S5" t="n">
-        <v>0.993610143661499</v>
+        <v>0.9937440752983093</v>
       </c>
       <c r="T5" t="n">
-        <v>0.9954686164855957</v>
+        <v>0.9955070018768311</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9967676997184753</v>
+        <v>0.9967761635780334</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9984349608421326</v>
+        <v>0.9984265565872192</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9995818138122559</v>
+        <v>0.9995837211608887</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>8236</v>
+        <v>7807</v>
       </c>
       <c r="Z5" t="n">
-        <v>88208</v>
+        <v>84176</v>
       </c>
       <c r="AA5" t="n">
-        <v>810684</v>
+        <v>795698</v>
       </c>
       <c r="AB5" t="n">
-        <v>10081</v>
+        <v>9870</v>
       </c>
       <c r="AC5" t="n">
-        <v>29357</v>
+        <v>28996</v>
       </c>
       <c r="AD5" t="n">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>216014</v>
+        <v>208677</v>
       </c>
       <c r="AG5" t="n">
-        <v>305277</v>
+        <v>289313</v>
       </c>
       <c r="AH5" t="n">
-        <v>136523</v>
+        <v>131482</v>
       </c>
       <c r="AI5" t="n">
-        <v>30865</v>
+        <v>29855</v>
       </c>
       <c r="AJ5" t="n">
-        <v>50977</v>
+        <v>49960</v>
       </c>
       <c r="AK5" t="n">
-        <v>13440</v>
+        <v>13254</v>
       </c>
       <c r="AL5" t="n">
         <v>1</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.9731175899505615</v>
+        <v>0.9736080169677734</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.9637231826782227</v>
+        <v>0.9643227458000183</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.9835967421531677</v>
+        <v>0.9837034344673157</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.996275782585144</v>
+        <v>0.9962900876998901</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.9938714504241943</v>
+        <v>0.9938032627105713</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.9983825087547302</v>
+        <v>0.9983505010604858</v>
       </c>
     </row>
     <row r="6">
@@ -1197,16 +1197,16 @@
         <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="F6" t="n">
-        <v>23656</v>
+        <v>22712</v>
       </c>
       <c r="G6" t="n">
-        <v>65408</v>
+        <v>64367</v>
       </c>
       <c r="H6" t="n">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="I6" t="n">
         <v>16</v>
@@ -1229,22 +1229,22 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>6682</v>
+        <v>6357</v>
       </c>
       <c r="Z6" t="n">
-        <v>5459</v>
+        <v>5249</v>
       </c>
       <c r="AA6" t="n">
-        <v>11184</v>
+        <v>10819</v>
       </c>
       <c r="AB6" t="n">
-        <v>59622</v>
+        <v>58613</v>
       </c>
       <c r="AC6" t="n">
-        <v>7054</v>
+        <v>6949</v>
       </c>
       <c r="AD6" t="n">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
@@ -1274,16 +1274,16 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>18451</v>
+        <v>17989</v>
       </c>
       <c r="H7" t="n">
-        <v>494256</v>
+        <v>489939</v>
       </c>
       <c r="I7" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1303,22 +1303,22 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="n">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AA7" t="n">
-        <v>30300</v>
+        <v>29554</v>
       </c>
       <c r="AB7" t="n">
-        <v>7767</v>
+        <v>7548</v>
       </c>
       <c r="AC7" t="n">
-        <v>462194</v>
+        <v>458430</v>
       </c>
       <c r="AD7" t="n">
-        <v>12092</v>
+        <v>12042</v>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
@@ -1351,13 +1351,13 @@
         <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H8" t="n">
-        <v>6247</v>
+        <v>6109</v>
       </c>
       <c r="I8" t="n">
-        <v>187682</v>
+        <v>187036</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1380,19 +1380,19 @@
         <v>28</v>
       </c>
       <c r="Z8" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AB8" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AC8" t="n">
-        <v>12729</v>
+        <v>12550</v>
       </c>
       <c r="AD8" t="n">
-        <v>180610</v>
+        <v>180009</v>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
